--- a/Somateria nesting phenology/R_processing_nesting_phenology/Data/water_test_calculator.xlsx
+++ b/Somateria nesting phenology/R_processing_nesting_phenology/Data/water_test_calculator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="17">
   <si>
     <t>Day</t>
   </si>
@@ -28,10 +28,43 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>Angle</t>
   </si>
   <si>
+    <t>Bianki et al. 1974</t>
+  </si>
+  <si>
     <t>Diametr</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Koriakin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33.5</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>42.5</t>
   </si>
 </sst>
 </file>
@@ -39,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,23 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,13 +95,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,16 +108,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,9 +125,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,9 +162,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,13 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -167,17 +209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,43 +239,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,133 +389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +457,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -441,20 +485,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,21 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -502,148 +535,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,18 +1003,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -994,13 +1027,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1009,13 +1045,16 @@
         <f>60/16*C2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1024,13 +1063,16 @@
         <f t="shared" ref="D3:D21" si="0">60/16*C3</f>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1039,13 +1081,16 @@
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1054,13 +1099,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1069,13 +1117,16 @@
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1084,13 +1135,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1099,13 +1153,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1114,13 +1171,16 @@
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1129,13 +1189,16 @@
         <f t="shared" si="0"/>
         <v>48.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1144,13 +1207,16 @@
         <f t="shared" si="0"/>
         <v>48.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -1159,13 +1225,16 @@
         <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -1174,13 +1243,16 @@
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -1189,13 +1261,16 @@
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>21</v>
@@ -1204,13 +1279,16 @@
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>23</v>
@@ -1219,13 +1297,16 @@
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>22</v>
@@ -1234,13 +1315,16 @@
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>24</v>
@@ -1249,13 +1333,16 @@
         <f>(60/16*C18)</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1263,13 +1350,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1277,13 +1367,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1291,13 +1384,16 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>28</v>
@@ -1306,13 +1402,16 @@
         <f>(C22-27)*(10/5)+10</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>30</v>
@@ -1321,13 +1420,16 @@
         <f t="shared" ref="D23:D28" si="1">(C23-27)*(10/5)+10</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>31</v>
@@ -1336,13 +1438,16 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>30</v>
@@ -1351,13 +1456,16 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>32</v>
@@ -1366,13 +1474,16 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>33</v>
@@ -1381,13 +1492,16 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>33</v>
@@ -1396,13 +1510,16 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>34</v>
@@ -1411,13 +1528,16 @@
         <f t="shared" ref="D29:D38" si="2">(C29-27)*(10/5)+10</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>35</v>
@@ -1426,13 +1546,16 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>35</v>
@@ -1441,13 +1564,16 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>37</v>
@@ -1456,13 +1582,16 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>38</v>
@@ -1471,13 +1600,16 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>38</v>
@@ -1486,13 +1618,16 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>39</v>
@@ -1501,13 +1636,16 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>42</v>
@@ -1516,13 +1654,16 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>41</v>
@@ -1531,13 +1672,16 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>43</v>
@@ -1545,6 +1689,536 @@
       <c r="D38">
         <f t="shared" si="2"/>
         <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
